--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.022321.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.022321.xlsx_with_dialog_acts.xlsx
@@ -509,12 +509,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -737,12 +737,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1459,12 +1459,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1611,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1763,12 +1763,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2105,12 +2105,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2333,12 +2333,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2941,12 +2941,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3135,12 +3135,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3173,12 +3173,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3211,12 +3211,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3629,12 +3629,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3819,12 +3819,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4237,12 +4237,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4655,12 +4655,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4693,12 +4693,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4997,12 +4997,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5111,12 +5111,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5377,12 +5377,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6255,12 +6255,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6293,12 +6293,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6749,12 +6749,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -7129,12 +7129,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7167,12 +7167,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7699,12 +7699,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7927,12 +7927,12 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7965,12 +7965,12 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8273,12 +8273,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8349,12 +8349,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8501,12 +8501,12 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8619,12 +8619,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9193,12 +9193,12 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9383,12 +9383,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9687,12 +9687,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10219,12 +10219,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10447,12 +10447,12 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11169,12 +11169,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11207,12 +11207,12 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11629,12 +11629,12 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12515,12 +12515,12 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12553,12 +12553,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13009,12 +13009,12 @@
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13047,12 +13047,12 @@
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14271,12 +14271,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14651,12 +14651,12 @@
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14921,12 +14921,12 @@
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15153,12 +15153,12 @@
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15613,12 +15613,12 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15727,12 +15727,12 @@
       <c r="H401" t="inlineStr"/>
       <c r="I401" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15955,12 +15955,12 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16297,12 +16297,12 @@
       <c r="H416" t="inlineStr"/>
       <c r="I416" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17331,12 +17331,12 @@
       <c r="H443" t="inlineStr"/>
       <c r="I443" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17369,12 +17369,12 @@
       <c r="H444" t="inlineStr"/>
       <c r="I444" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17559,12 +17559,12 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18623,12 +18623,12 @@
       <c r="H477" t="inlineStr"/>
       <c r="I477" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18855,12 +18855,12 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19889,12 +19889,12 @@
       <c r="H510" t="inlineStr"/>
       <c r="I510" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20079,12 +20079,12 @@
       <c r="H515" t="inlineStr"/>
       <c r="I515" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20535,12 +20535,12 @@
       <c r="H527" t="inlineStr"/>
       <c r="I527" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20573,12 +20573,12 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20915,12 +20915,12 @@
       <c r="H537" t="inlineStr"/>
       <c r="I537" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20991,12 +20991,12 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21105,12 +21105,12 @@
       <c r="H542" t="inlineStr"/>
       <c r="I542" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21409,12 +21409,12 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21561,12 +21561,12 @@
       <c r="H554" t="inlineStr"/>
       <c r="I554" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21637,12 +21637,12 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21865,12 +21865,12 @@
       <c r="H562" t="inlineStr"/>
       <c r="I562" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22017,12 +22017,12 @@
       <c r="H566" t="inlineStr"/>
       <c r="I566" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22283,12 +22283,12 @@
       <c r="H573" t="inlineStr"/>
       <c r="I573" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22359,12 +22359,12 @@
       <c r="H575" t="inlineStr"/>
       <c r="I575" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22629,12 +22629,12 @@
       <c r="H582" t="inlineStr"/>
       <c r="I582" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23161,12 +23161,12 @@
       <c r="H596" t="inlineStr"/>
       <c r="I596" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23389,12 +23389,12 @@
       <c r="H602" t="inlineStr"/>
       <c r="I602" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
